--- a/src/stats.xlsx
+++ b/src/stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="344"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="344" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -2194,7 +2194,7 @@
   <sheetPr/>
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -5805,8 +5805,8 @@
   <sheetPr/>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12.75"/>
@@ -6153,18 +6153,23 @@
         <v>144</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <f>ROUND((E6+E7)/2,0)</f>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <f>ROUND((F6+F7)/2,0)</f>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>22</v>
-      </c>
-      <c r="H10" s="30">
+        <f>ROUND((G6+G7)/2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <f>ROUND((H6+H7)/2,0)</f>
         <v>0</v>
       </c>
       <c r="I10">
+        <f>ROUND((I6+I7)/2,0)</f>
         <v>0</v>
       </c>
       <c r="L10" s="41" t="s">
@@ -6188,19 +6193,24 @@
         <v>147</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <f>ROUND((E8+E9)/2,0)</f>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <f>ROUND((F8+F9)/2,0)</f>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>15</v>
-      </c>
-      <c r="H11" s="30">
-        <v>0</v>
+        <f>ROUND((G8+G9)/2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>ROUND((H8+H9)/2,0)</f>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <f>ROUND((I8+I9)/2,0)</f>
+        <v>8</v>
       </c>
       <c r="L11" s="41" t="s">
         <v>148</v>
@@ -6223,19 +6233,24 @@
         <v>150</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <f>ROUND((E7+E9)/2,0)</f>
+        <v>13</v>
       </c>
       <c r="F12">
+        <f>ROUND((F7+F9)/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <f>ROUND((G7+G9)/2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f>ROUND((H7+H9)/2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f>ROUND((I7+I9)/2,0)</f>
         <v>5</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="L12" s="44" t="s">
         <v>151</v>
@@ -6385,18 +6400,23 @@
         <v>157</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f t="shared" ref="E17:I17" si="0">ROUND((E13+E14)/2,0)</f>
+        <v>26</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>25</v>
-      </c>
-      <c r="H17" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6414,19 +6434,24 @@
         <v>159</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <f t="shared" ref="E18:I18" si="1">ROUND((E15+E16)/2,0)</f>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>18</v>
-      </c>
-      <c r="H18" s="30">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6443,19 +6468,24 @@
         <v>161</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <f t="shared" ref="E19:I19" si="2">ROUND((E14+E16)/2,0)</f>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>21</v>
-      </c>
-      <c r="H19" s="30">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:16">
@@ -6599,18 +6629,23 @@
         <v>167</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <f t="shared" ref="E24:I24" si="3">ROUND((E20+E21)/2,0)</f>
+        <v>34</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>29</v>
-      </c>
-      <c r="H24" s="30">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6628,19 +6663,24 @@
         <v>169</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <f t="shared" ref="E25:I25" si="4">ROUND((E22+E23)/2,0)</f>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>21</v>
-      </c>
-      <c r="H25" s="30">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="M25" s="37"/>
     </row>
@@ -6658,19 +6698,24 @@
         <v>171</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <f t="shared" ref="E26:I26" si="5">ROUND((E21+E23)/2,0)</f>
+        <v>26</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>24</v>
-      </c>
-      <c r="H26" s="30">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:16">
@@ -6813,18 +6858,23 @@
         <v>177</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <f t="shared" ref="E31:I31" si="6">ROUND((E27+E28)/2,0)</f>
+        <v>43</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>32</v>
-      </c>
-      <c r="H31" s="30">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I31">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6842,19 +6892,24 @@
         <v>179</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <f t="shared" ref="E32:I32" si="7">ROUND((E29+E30)/2,0)</f>
+        <v>28</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>24</v>
-      </c>
-      <c r="H32" s="30">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6871,19 +6926,24 @@
         <v>181</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <f t="shared" ref="E33:I33" si="8">ROUND((E28+E30)/2,0)</f>
+        <v>33</v>
       </c>
       <c r="F33">
-        <v>11</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>27</v>
-      </c>
-      <c r="H33" s="30">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:16">
@@ -7025,18 +7085,23 @@
         <v>187</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <f t="shared" ref="E38:I38" si="9">ROUND((E34+E35)/2,0)</f>
+        <v>51</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>36</v>
-      </c>
-      <c r="H38" s="30">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I38">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7054,19 +7119,24 @@
         <v>189</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <f t="shared" ref="E39:I39" si="10">ROUND((E36+E37)/2,0)</f>
+        <v>33</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>27</v>
-      </c>
-      <c r="H39" s="30">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7083,19 +7153,24 @@
         <v>191</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <f t="shared" ref="E40:I40" si="11">ROUND((E35+E37)/2,0)</f>
+        <v>39</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="G40">
-        <v>30</v>
-      </c>
-      <c r="H40" s="30">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
